--- a/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_022.xlsx
+++ b/static/data/python/sample exams/Browns Ferry/Browns_Ferry_exam_sample_022.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(700000AA2.05) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operational status of offsite circuit</t>
-  </si>
-  <si>
-    <t>(295027EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.8 to 41.10) Equipment environmental qualifications</t>
-  </si>
-  <si>
-    <t>(295026EK2.12) Knowledge of the relationship between the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE and the following systems or components: (CFR: 41.7 / 45.8) Suppression pool makeup</t>
-  </si>
-  <si>
-    <t>(295004AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.5 / 45.6) Load shedding</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
-  </si>
-  <si>
-    <t>(295018AA1.03) Ability to operate and/or monitor the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.7 / 45.6) Affected systems so as to isolate damaged portions</t>
-  </si>
-  <si>
-    <t>(295021AA2.07) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor recirculation flow</t>
-  </si>
-  <si>
-    <t>(295016AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Turbine trip</t>
-  </si>
-  <si>
-    <t>(295006AK2.01) Knowledge of the relationship between the (APE 6) SCRAM and the following systems or components: (CFR: 41.7 / 45.8) RPS</t>
-  </si>
-  <si>
-    <t>(295025EK3.07) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) RFCS initiation</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295024EA1.24) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Drywell cooling</t>
-  </si>
-  <si>
-    <t>(295005AA2.06) Ability to determine and/or interpret the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.10 / 43.5 / 45.13) Feedwater temperature</t>
+    <t>(295001AA1.02) Ability to operate and/or monitor the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.7 / 45.6) RPS</t>
+  </si>
+  <si>
+    <t>(295027EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295023AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 23) REFUELING ACCIDENTS:(CFR: 41.8 to 41.10) Radiation exposure hazards</t>
+  </si>
+  <si>
+    <t>(295019AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Dryer/filter realignment</t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.35) EQUIPMENT CONTROL Ability to determine technical specification mode of operation (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295030EK2.02) Knowledge of the relationship between the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
+  </si>
+  <si>
+    <t>(700000AA1.06) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295021AA2.04) Ability to determine and/or interpret the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.10 / 43.5 / 45.13) Reactor water temperature</t>
+  </si>
+  <si>
+    <t>(295024EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Containment building integrity (Mark III)</t>
+  </si>
+  <si>
+    <t>(600000AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Steps called out in the site fire protection plant, fire protection system manual, and fire zone manual</t>
+  </si>
+  <si>
+    <t>(295038) (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
+  </si>
+  <si>
+    <t>(295003AK2.04) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) AC electrical loads</t>
+  </si>
+  <si>
+    <t>(295006AA1.07) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Control rod position</t>
+  </si>
+  <si>
+    <t>(295026EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
   </si>
   <si>
     <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
   </si>
   <si>
-    <t>(295038EK2.13) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295001AK3.07) Knowledge of the reasons for the following responses or actions as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.5 / 41.6) Recirculation pump discharge/suction valve manipulation </t>
-  </si>
-  <si>
-    <t>(295019) (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR (G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
-  </si>
-  <si>
-    <t>(295023AA1.05) Ability to operate and/or monitor the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.7 / 45.6) Fuel transfer system</t>
-  </si>
-  <si>
-    <t>(295014AK1.09) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.8 to 41.10) Reactor power</t>
-  </si>
-  <si>
-    <t>(295036EK2.04) Knowledge of the relationship between the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Area/room/sump level indicators</t>
-  </si>
-  <si>
-    <t>(295017AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 17) ABNORMAL OFFSITE RELEASE RATE: (CFR: 41.5 / 45.6) Power reduction</t>
-  </si>
-  <si>
-    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295010AA1.08) Ability to operate and/or monitor the following as they apply to (APE 10) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) Component cooling water</t>
-  </si>
-  <si>
-    <t>(295007AA2.01) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(223002K4.04) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic bypassing of selected isolations during specified plant conditions</t>
-  </si>
-  <si>
-    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.1.46) CONDUCT OF OPERATIONS Ability to use integrated control systems to operate plant systems or components (CFR: 41.10/ 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(212000K6.12) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) Main steam system</t>
-  </si>
-  <si>
-    <t>(400000A3.03) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) Spent fuel pool cooling</t>
-  </si>
-  <si>
-    <t>(262001A4.03) Ability to manually operate and/or monitor the (SF6 AC) AC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Local operation of breakers</t>
-  </si>
-  <si>
-    <t>(209002K2.02) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Valves</t>
-  </si>
-  <si>
-    <t>(264000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Operating voltages, currents, and temperatures</t>
-  </si>
-  <si>
-    <t>(215005A2.10) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Changes in void concentration</t>
-  </si>
-  <si>
-    <t>(262002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.5 / 45.3) Static switch/inverter operation</t>
-  </si>
-  <si>
-    <t>(300000K3.12) Knowledge of the effect that a loss or malfunction of the (SF8 IA) INSTRUMENT AIR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Feedwater system</t>
-  </si>
-  <si>
-    <t>(215004K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor vessel and internals</t>
-  </si>
-  <si>
-    <t>(215003K4.04) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Ranging IRMs</t>
-  </si>
-  <si>
-    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (291002K1.16) SENSORS AND DETECTORS (CFR: 41.7) (POSITION DETECTORS) Failure modes of reed switches, LVDTs, limit switches, and potentiometers</t>
-  </si>
-  <si>
-    <t>(217000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) : (CFR: 41.7 / 45.7) Reactor water level</t>
-  </si>
-  <si>
-    <t>(211000A3.09) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) Pump trip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(203000A4.06) Ability to manually operate and/or monitor the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) in the control room: (CFR: 41.7 / 45.5 to 45.8) System reset following automatic initiation </t>
-  </si>
-  <si>
-    <t>(510000K2.02) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system valves (Class 1E)</t>
-  </si>
-  <si>
-    <t>(263000A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Voltage</t>
-  </si>
-  <si>
-    <t>(239002A2.06) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Reactor high pressure</t>
-  </si>
-  <si>
-    <t>(209001K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Heat removal (transfer) mechanisms</t>
-  </si>
-  <si>
-    <t>(205000K3.03) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Temperatures</t>
-  </si>
-  <si>
-    <t>(261000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) HIGH-PRESSURE COOLANT INJECTION SYSTEM (BWR 2, 3, 4)</t>
-  </si>
-  <si>
-    <t>(223002K4.03) Knowledge of (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF design features and/or interlocks that provide for the following: (CFR: 41.7) Manual initiation capability</t>
-  </si>
-  <si>
-    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(212000K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 RPS) REACTOR PROTECTION SYSTEM : (CFR: 41.7 / 45.7) AC electrical distribution</t>
+    <t>(295037EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Maintaining heat sinks external to the containment</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295016AK2.06) Knowledge of the relationship between the (APE 16) CONTROL ROOM ABANDONMENT and the following systems or components: (CFR: 41.7 / 45.8) Safety/relief valves</t>
+  </si>
+  <si>
+    <t>(295005AA1.09) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) Reactor water level control system</t>
+  </si>
+  <si>
+    <t>(295025EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295009AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 9) LOW REACTOR WATER LEVEL: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295013) (APE 13) HIGH SUPPRESSION POOL TEMPERATURE. (G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295036EK2.03) Knowledge of the relationship between the (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Radwaste system</t>
+  </si>
+  <si>
+    <t>(295007AA1.05) Ability to operate and/or monitor the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.7 / 45.6) Reactor/turbine pressure regulating system</t>
+  </si>
+  <si>
+    <t>(500000EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen concentration limits for wetwell</t>
+  </si>
+  <si>
+    <t>(295034EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.8 to 41.10) Radiation releases</t>
+  </si>
+  <si>
+    <t>(209001K4.03) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Motor cooling</t>
+  </si>
+  <si>
+    <t>(218000A4.03) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS logic reset</t>
+  </si>
+  <si>
+    <t>(215004K3.03) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+  </si>
+  <si>
+    <t>(209002A2.12) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool level</t>
+  </si>
+  <si>
+    <t>(223002K2.01) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF Knowledge of electrical power supplies to the following: (CFR: 41.7) Logic power supplies</t>
+  </si>
+  <si>
+    <t>(211000A1.09) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.5 / 45.5) SLCS lineup</t>
+  </si>
+  <si>
+    <t>(510000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SWS*) SERVICE WATER SYSTEM: (CFR: 41.4 / 41.7 / 45.5) Pipe rupture</t>
+  </si>
+  <si>
+    <t>(262002K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) Static switch/inverter</t>
+  </si>
+  <si>
+    <t>(203000K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 43.5 / 45.7 / 45.8) Plant ventilation systems</t>
   </si>
   <si>
     <t>(400000A3.02) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) Containment isolation</t>
   </si>
   <si>
-    <t>(259001K3.08) Knowledge of the effect that a loss or malfunction of the (SF2 FWS) FEEDWATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RCIC</t>
-  </si>
-  <si>
-    <t>(201001K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 CRDH) CRD HYDRAULIC SYSTEM and the following systems: (CFR: 41.1-3 to 41.5-8 / 45.1-6 / 45.8) CRD return to the vessel</t>
-  </si>
-  <si>
-    <t>(230000K4.10) Knowledge of (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of leakage to the environment through system heat exchanger</t>
-  </si>
-  <si>
-    <t>(204000) (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM  (291005K1.09) MOTORS AND GENERATORS (CFR: 41.7) Interrelations of the following: VARs, watts, amps, volts, power factor</t>
-  </si>
-  <si>
-    <t>(234000K6.08) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 FH) FUEL HANDLING: (CFR: 41.7 / 45.7) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(239001A3.05) Ability to monitor automatic operation of the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM including: (CFR: 41.7 / 45.7) MSR drain tank level control</t>
-  </si>
-  <si>
-    <t>(271000A4.02) Ability to manually operate and/or monitor the (SF9 OG) OFFGAS SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System flows</t>
-  </si>
-  <si>
-    <t>(510001K2.02) (SF8 CWS*) CIRCULATING WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) System valves</t>
-  </si>
-  <si>
-    <t>(201005A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) including: (CFR: 41.5 / 45.5) Reactor power</t>
-  </si>
-  <si>
-    <t>(233000A2.04) Ability to (a) predict the impacts of the following on the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trip</t>
-  </si>
-  <si>
-    <t>(241000K5.03) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM: (CFR: 41.5 / 45.3) Reactor power vs. reactor pressure</t>
-  </si>
-  <si>
-    <t>(G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.32) CONDUCT OF OPERATIONS Ability to explain and apply system precautions, limitations, notes, or cautions (CFR: 41.10 / 43.2 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+    <t>(261000K4.04) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Radioactive particulate filtration</t>
+  </si>
+  <si>
+    <t>(212000A4.01) Ability to manually operate and/or monitor the (SF7 RPS) REACTOR PROTECTION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System actuation</t>
+  </si>
+  <si>
+    <t>(217000K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor vessel pressure</t>
+  </si>
+  <si>
+    <t>(263000) (SF6 DC) DC ELECTRICAL DISTRIBUTION (291004K1.23) PUMPS (CFR: 41.3) (POSITIVE DISPLACEMENT) Functions and characteristics of positive displacement pumps</t>
+  </si>
+  <si>
+    <t>(262001A2.12) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Station blackout</t>
+  </si>
+  <si>
+    <t>(259002K2.02) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Feedwater coolant injection (FWCI) initiation logic</t>
+  </si>
+  <si>
+    <t>(239002A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Lights and alarms</t>
+  </si>
+  <si>
+    <t>(300000K5.15) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.5 / 45.3) High moisture content in instrument air</t>
+  </si>
+  <si>
+    <t>(215003K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM: (CFR: 41.7 / 45.7) 24/48 volt DC power</t>
+  </si>
+  <si>
+    <t>(264000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) AC electrical distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215005A3.01) Ability to monitor automatic operation of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR including: (CFR: 41.7 / 45.7) Four rod display </t>
+  </si>
+  <si>
+    <t>(209001K4.11) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Override injection</t>
+  </si>
+  <si>
+    <t>(218000A4.02) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS logic initiation</t>
+  </si>
+  <si>
+    <t>(215004K3.01) Knowledge of the effect that a loss or malfunction of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) RPS</t>
+  </si>
+  <si>
+    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(239001K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Offgas system</t>
+  </si>
+  <si>
+    <t>(259001A3.04) Ability to monitor automatic operation of the (SF2 FWS) FEEDWATER SYSTEM including: (CFR: 41.7 / 45.7) Reactor water level</t>
+  </si>
+  <si>
+    <t>(204000K4.06) Knowledge of (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Maximize plant efficiency (use of regenerative heat exchanger)</t>
+  </si>
+  <si>
+    <t>(202001A4.06) Ability to manually operate and/or monitor the (SF1, SF4 RS) RECIRCULATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Oil pumps</t>
+  </si>
+  <si>
+    <t>(239003K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(234000) (SF8 FH) FUEL HANDLING (291008K1.05) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Function of thermal overload protection device</t>
+  </si>
+  <si>
+    <t>(201001A2.09) Ability to (a) predict the impacts of the following on the (SF1 CRDH) CRD HYDRAULIC SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.2 / 41.5-7 / 41.10 / 41.12-13 / 45.1-6) Loss of applicable plant air systems</t>
+  </si>
+  <si>
+    <t>(202002K2.01) (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t>(256000A1.07) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2 CDS) CONDENSATE SYSTEM including: (CFR: 41.5 / 45.5) System lineup</t>
+  </si>
+  <si>
+    <t>(230000K5.06) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE: (CFR: 41.5 / 45.3) Heat exchanger operation</t>
+  </si>
+  <si>
+    <t>(215001K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 TIP) TRAVERSING IN CORE PROBE: (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.37) CONDUCT OF OPERATIONS Knowledge of procedures, guidelines, or limitations associated with reactivity management (CFR: 41.1 / 41.5 / 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.20) EQUIPMENT CONTROL Knowledge of the process for managing troubleshooting activities (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
   </si>
   <si>
     <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
   </si>
   <si>
-    <t>(G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
-  </si>
-  <si>
-    <t>(292002K1.09) NEUTRON LIFE CYCLE (CFR: 41.1) Define K-excess (excess reactivity)</t>
-  </si>
-  <si>
-    <t>(292005K1.10) CONTROL RODS (CFR: 41.1) State the purpose of flux shaping</t>
-  </si>
-  <si>
-    <t>(292001K1.02) NEUTRONS (CFR: 41.1) Define prompt and delayed neutrons</t>
-  </si>
-  <si>
-    <t>(293006K1.20) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Describe the problems that will occur in emergency core cooling systems if the pumps are operated at lower than design flow for extended periods of time</t>
-  </si>
-  <si>
-    <t>(293010K1.06) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) State the operational concerns of uncontrolled cooldown</t>
-  </si>
-  <si>
-    <t>(293009K1.39) CORE THERMAL LIMITS (CFR: 41.14) For the following plant operating or accident condition, identify which of the three core thermal limits are most limiting: Full power operation</t>
-  </si>
-  <si>
-    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295030EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression chamber pressure</t>
-  </si>
-  <si>
-    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(295027EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment pressure</t>
-  </si>
-  <si>
-    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.1.6) CONDUCT OF OPERATIONS Ability to manage the control room crew during plant transients (SRO Only) (CFR: 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295004AA2.04) Ability to determine and/or interpret the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.41) CONDUCT OF OPERATIONS Knowledge of the refueling process (CFR: 41.2 / 41.10 / 43.6 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295002) (APE 2) LOSS OF MAIN CONDENSER VACUUM (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295020AA2.05) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
-  </si>
-  <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.4.12) EMERGENCY PROCEDURES / PLAN Knowledge of operating crew responsibilities during emergency and abnormal operations (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.4.22) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing safety functions during abnormal/emergency operations (CFR: 41.7 / 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(209002A2.02) Ability to (a) predict the impacts of the following on the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Pump trips</t>
-  </si>
-  <si>
-    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(215005A2.11) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Recirculation vortex event</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.1.29) CONDUCT OF OPERATIONS Knowledge of how to conduct system lineups, such as valves, breakers, or switches (CFR: 41.10 / 45.1 / 45.12)</t>
-  </si>
-  <si>
-    <t>(290003A2.06) Ability to (a) predict the impacts of the following on the (SF9 CRV) CONTROL ROOM VENTILATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Breaches of control room envelope</t>
-  </si>
-  <si>
-    <t>(226001) (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE  (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
-  </si>
-  <si>
-    <t>(216000A2.09) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Jet pump malfunction</t>
-  </si>
-  <si>
-    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(G2.1.31) CONDUCT OF OPERATIONS Ability to locate control room switches, controls, and indications, and to determine that they correctly reflect the desired plant lineup (CFR: 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.3) EQUIPMENT CONTROL (Multi-unit license) Knowledge of the design, procedural, or operational differences between units (CFR: 41.5 / 41.6 / 41.7 / 41.10 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
+    <t>(G2.4.5) EMERGENCY PROCEDURES / PLAN Knowledge of the organization of the operating procedures network for normal, abnormal, and emergency evolutions (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(292002K1.12) NEUTRON LIFE CYCLE (CFR: 41.1) State the relationship between reactivity and effective multiplication factor</t>
+  </si>
+  <si>
+    <t>(292004K1.03) REACTIVITY COEFFICIENTS (CFR: 41.1) Explain resonance absorption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(292003K1.04) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define delayed neutron fraction and effective delayed </t>
+  </si>
+  <si>
+    <t>(293003K1.07) STEAM (CFR: 41.14) Define the following term: Saturated liquid</t>
+  </si>
+  <si>
+    <t>(293005K1.05) THERMODYNAMIC CYCLES (CFR: 41.14) State the advantages of moisture separators/reheaters and feedwater heaters for a typical steam cycle</t>
+  </si>
+  <si>
+    <t>(293006K1.10) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Define cavitation</t>
+  </si>
+  <si>
+    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.29) EMERGENCY PROCEDURES / PLAN Knowledge of the emergency plan implementing procedures (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(295027EA2.05) Ability to determine and/or interpret the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Reactor water level</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
+  </si>
+  <si>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295030EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.2.45) EQUIPMENT CONTROL Ability to determine or interpret technical specifications with action statements of greater than 1 hour (SRO Only) (CFR: 43.2 / 43.5 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295017) (APE 17) ABNORMAL OFFSITE RELEASE RATE (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295020AA2.04) Ability to determine and/or interpret the following as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(223002A2.06) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Containment instrumentation failures</t>
+  </si>
+  <si>
+    <t>(211000) (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(510000A2.01) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pump/motor failure</t>
+  </si>
+  <si>
+    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(271000A2.14) Ability to (a) predict the impacts of the following on the (SF9 OG) OFFGAS SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6 / 45.8) Offgas filter high differential pressure</t>
+  </si>
+  <si>
+    <t>(510001) (SF8 CWS*) CIRCULATING WATER SYSTEM (G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(290001A2.08) Ability to (a) predict the impacts of the following on the (SF5 SC) SECONDARY CONTAINMENT and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of secondary containment integrity </t>
+  </si>
+  <si>
+    <t>(G2.1.20) CONDUCT OF OPERATIONS Ability to interpret and execute procedure steps (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.4.16) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures implementation hierarchy and coordination with other support procedures or guidelines such as, operating procedures, abnormal operating procedures, or severe accident management guidelines (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>G</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
     <t>K2</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
     <t>K4</t>
   </si>
   <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
     <t>K6</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>A4</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,166 +385,208 @@
     <t>T</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
     <t>600000</t>
   </si>
   <si>
-    <t>295030</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295027</t>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295006</t>
   </si>
   <si>
     <t>295026</t>
   </si>
   <si>
+    <t>295031</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
     <t>295004</t>
   </si>
   <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
     <t>295016</t>
   </si>
   <si>
-    <t>295006</t>
+    <t>295005</t>
   </si>
   <si>
     <t>295025</t>
   </si>
   <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295014</t>
+    <t>295009</t>
+  </si>
+  <si>
+    <t>295013</t>
   </si>
   <si>
     <t>295036</t>
   </si>
   <si>
+    <t>295007</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>239001</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>201001</t>
+  </si>
+  <si>
+    <t>202002</t>
+  </si>
+  <si>
+    <t>256000</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>215001</t>
+  </si>
+  <si>
+    <t>292002</t>
+  </si>
+  <si>
+    <t>292004</t>
+  </si>
+  <si>
+    <t>292003</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293006</t>
+  </si>
+  <si>
     <t>295017</t>
   </si>
   <si>
-    <t>295032</t>
-  </si>
-  <si>
-    <t>295010</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>201001</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>234000</t>
-  </si>
-  <si>
-    <t>239001</t>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295022</t>
   </si>
   <si>
     <t>271000</t>
@@ -553,49 +595,7 @@
     <t>510001</t>
   </si>
   <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292001</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293010</t>
-  </si>
-  <si>
-    <t>293009</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295034</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>216000</t>
+    <t>290001</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.7</v>
+        <v>4.2</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.5</v>
+        <v>4.7</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,7 +1426,7 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="D28" t="s">
         <v>111</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="D30" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="D31" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D34" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1548,7 +1548,7 @@
         <v>3.3</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,10 +1596,10 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D38" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,7 +1613,7 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D39" t="s">
         <v>111</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="D40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.8</v>
+        <v>2.6</v>
       </c>
       <c r="D42" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.6</v>
+        <v>4.6</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1701,7 +1701,7 @@
         <v>3.4</v>
       </c>
       <c r="D44" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D45" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>4.6</v>
+        <v>3.1</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>2.8</v>
+        <v>3.6</v>
       </c>
       <c r="D49" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D52" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.2</v>
+        <v>4.3</v>
       </c>
       <c r="D55" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,7 +1902,7 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="D56" t="s">
         <v>111</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D59" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="D61" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>4.2</v>
+        <v>2.7</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>3.8</v>
+        <v>4.3</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>4.1</v>
+        <v>2.6</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>4.6</v>
+        <v>3.7</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,10 +2310,10 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,10 +2344,10 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>3.7</v>
+        <v>4.7</v>
       </c>
       <c r="D83" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2381,7 +2381,7 @@
         <v>4.3</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2398,7 +2398,7 @@
         <v>3.8</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,10 +2480,10 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.7</v>
+        <v>2.5</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.1</v>
+        <v>4.6</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
